--- a/Задание2.xlsx
+++ b/Задание2.xlsx
@@ -502,8 +502,8 @@
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -528,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,10 +542,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,10 +556,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,10 +570,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,10 +584,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,10 +598,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,10 +612,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,10 +626,10 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,10 +640,10 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
